--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Apoe-Vldlr.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H2">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I2">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J2">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N2">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O2">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P2">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q2">
-        <v>17.42406109875933</v>
+        <v>4.229093530654223</v>
       </c>
       <c r="R2">
-        <v>156.816549888834</v>
+        <v>38.061841775888</v>
       </c>
       <c r="S2">
-        <v>0.000537755258802145</v>
+        <v>6.582874708387786E-05</v>
       </c>
       <c r="T2">
-        <v>0.000537755258802145</v>
+        <v>6.582874708387786E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H3">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I3">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J3">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>35.475684</v>
       </c>
       <c r="O3">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P3">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q3">
-        <v>1852.498203444916</v>
+        <v>327.2791213656014</v>
       </c>
       <c r="R3">
-        <v>16672.48383100424</v>
+        <v>2945.512092290412</v>
       </c>
       <c r="S3">
-        <v>0.05717327580393773</v>
+        <v>0.005094324433840819</v>
       </c>
       <c r="T3">
-        <v>0.05717327580393772</v>
+        <v>0.005094324433840818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H4">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I4">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J4">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N4">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O4">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P4">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q4">
-        <v>300.140279997558</v>
+        <v>47.40815360837055</v>
       </c>
       <c r="R4">
-        <v>2701.262519978022</v>
+        <v>426.673382475335</v>
       </c>
       <c r="S4">
-        <v>0.009263168502004827</v>
+        <v>0.0007379404903150203</v>
       </c>
       <c r="T4">
-        <v>0.009263168502004827</v>
+        <v>0.0007379404903150202</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>156.656447</v>
+        <v>27.67634766666667</v>
       </c>
       <c r="H5">
-        <v>469.969341</v>
+        <v>83.029043</v>
       </c>
       <c r="I5">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="J5">
-        <v>0.0671576211124673</v>
+        <v>0.005965811625935536</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N5">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O5">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P5">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q5">
-        <v>5.943127848654665</v>
+        <v>4.350463540621778</v>
       </c>
       <c r="R5">
-        <v>53.48815063789199</v>
+        <v>39.154171865596</v>
       </c>
       <c r="S5">
-        <v>0.0001834215477225967</v>
+        <v>6.771795469581877E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001834215477225967</v>
+        <v>6.771795469581875E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>126.902076</v>
       </c>
       <c r="I6">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J6">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N6">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O6">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P6">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q6">
-        <v>4.704880367469332</v>
+        <v>6.463771341290665</v>
       </c>
       <c r="R6">
-        <v>42.343923307224</v>
+        <v>58.173942071616</v>
       </c>
       <c r="S6">
-        <v>0.0001452057672032471</v>
+        <v>0.0001006130429014224</v>
       </c>
       <c r="T6">
-        <v>0.0001452057672032471</v>
+        <v>0.0001006130429014224</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>126.902076</v>
       </c>
       <c r="I7">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J7">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>35.475684</v>
       </c>
       <c r="O7">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P7">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q7">
         <v>500.215327457776</v>
@@ -883,10 +883,10 @@
         <v>4501.937947119984</v>
       </c>
       <c r="S7">
-        <v>0.01543804405581484</v>
+        <v>0.007786195325314354</v>
       </c>
       <c r="T7">
-        <v>0.01543804405581484</v>
+        <v>0.007786195325314353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>126.902076</v>
       </c>
       <c r="I8">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J8">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N8">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O8">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P8">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q8">
-        <v>81.044488012488</v>
+        <v>72.45889986024666</v>
       </c>
       <c r="R8">
-        <v>729.4003921123921</v>
+        <v>652.13009874222</v>
       </c>
       <c r="S8">
-        <v>0.002501259573105265</v>
+        <v>0.001127872570871785</v>
       </c>
       <c r="T8">
-        <v>0.002501259573105265</v>
+        <v>0.001127872570871785</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>126.902076</v>
       </c>
       <c r="I9">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="J9">
-        <v>0.01813403725498241</v>
+        <v>0.009118181457976757</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N9">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O9">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P9">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q9">
-        <v>1.604775452634666</v>
+        <v>6.649273975941333</v>
       </c>
       <c r="R9">
-        <v>14.442979073712</v>
+        <v>59.843465783472</v>
       </c>
       <c r="S9">
-        <v>4.952785885905394E-05</v>
+        <v>0.0001035005188891958</v>
       </c>
       <c r="T9">
-        <v>4.952785885905393E-05</v>
+        <v>0.0001035005188891958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H10">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I10">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J10">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N10">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O10">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P10">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q10">
-        <v>2.616164620119111</v>
+        <v>4.521968534944</v>
       </c>
       <c r="R10">
-        <v>23.545481581072</v>
+        <v>40.697716814496</v>
       </c>
       <c r="S10">
-        <v>8.074215731838443E-05</v>
+        <v>7.038754779254862E-05</v>
       </c>
       <c r="T10">
-        <v>8.074215731838441E-05</v>
+        <v>7.038754779254862E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H11">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I11">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J11">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>35.475684</v>
       </c>
       <c r="O11">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P11">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q11">
-        <v>278.1464224222614</v>
+        <v>349.943995854456</v>
       </c>
       <c r="R11">
-        <v>2503.317801800352</v>
+        <v>3149.495962690104</v>
       </c>
       <c r="S11">
-        <v>0.008584376542689252</v>
+        <v>0.005447118780809031</v>
       </c>
       <c r="T11">
-        <v>0.008584376542689251</v>
+        <v>0.00544711878080903</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H12">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I12">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J12">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N12">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O12">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P12">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q12">
-        <v>45.06506130526401</v>
+        <v>50.69128345423</v>
       </c>
       <c r="R12">
-        <v>405.5855517473761</v>
+        <v>456.22155108807</v>
       </c>
       <c r="S12">
-        <v>0.001390833834189915</v>
+        <v>0.0007890446625684958</v>
       </c>
       <c r="T12">
-        <v>0.001390833834189914</v>
+        <v>0.0007890446625684956</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.52144266666667</v>
+        <v>29.593002</v>
       </c>
       <c r="H13">
-        <v>70.564328</v>
+        <v>88.779006</v>
       </c>
       <c r="I13">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="J13">
-        <v>0.01008349266740757</v>
+        <v>0.006378958578792732</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N13">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O13">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P13">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q13">
-        <v>0.8923408109262222</v>
+        <v>4.651743713048</v>
       </c>
       <c r="R13">
-        <v>8.031067298336</v>
+        <v>41.865693417432</v>
       </c>
       <c r="S13">
-        <v>2.754013321001927E-05</v>
+        <v>7.240758762265659E-05</v>
       </c>
       <c r="T13">
-        <v>2.754013321001926E-05</v>
+        <v>7.240758762265657E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H14">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I14">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J14">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.1112246666666667</v>
+        <v>0.1528053333333333</v>
       </c>
       <c r="N14">
-        <v>0.333674</v>
+        <v>0.458416</v>
       </c>
       <c r="O14">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="P14">
-        <v>0.008007360146089434</v>
+        <v>0.01103433215988526</v>
       </c>
       <c r="Q14">
-        <v>234.7051366430613</v>
+        <v>693.6733775900568</v>
       </c>
       <c r="R14">
-        <v>2112.346229787552</v>
+        <v>6243.060398310512</v>
       </c>
       <c r="S14">
-        <v>0.007243656962765657</v>
+        <v>0.01079750282210741</v>
       </c>
       <c r="T14">
-        <v>0.007243656962765657</v>
+        <v>0.01079750282210741</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H15">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I15">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J15">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>35.475684</v>
       </c>
       <c r="O15">
-        <v>0.851329675722</v>
+        <v>0.8539197603380489</v>
       </c>
       <c r="P15">
-        <v>0.8513296757219999</v>
+        <v>0.8539197603380488</v>
       </c>
       <c r="Q15">
-        <v>24953.47333243245</v>
+        <v>53681.67241675147</v>
       </c>
       <c r="R15">
-        <v>224581.2599918921</v>
+        <v>483135.0517507632</v>
       </c>
       <c r="S15">
-        <v>0.7701339793195582</v>
+        <v>0.8355921217980847</v>
       </c>
       <c r="T15">
-        <v>0.7701339793195581</v>
+        <v>0.8355921217980847</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H16">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I16">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J16">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.915914</v>
+        <v>1.712948333333333</v>
       </c>
       <c r="N16">
-        <v>5.747742000000001</v>
+        <v>5.138845</v>
       </c>
       <c r="O16">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="P16">
-        <v>0.1379317544094067</v>
+        <v>0.1236949029880405</v>
       </c>
       <c r="Q16">
-        <v>4042.941827949025</v>
+        <v>7776.081044426407</v>
       </c>
       <c r="R16">
-        <v>36386.47645154122</v>
+        <v>69984.72939983767</v>
       </c>
       <c r="S16">
-        <v>0.1247764925001067</v>
+        <v>0.1210400452642852</v>
       </c>
       <c r="T16">
-        <v>0.1247764925001067</v>
+        <v>0.1210400452642852</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2110.189616</v>
+        <v>4539.588785666667</v>
       </c>
       <c r="H17">
-        <v>6330.568848000001</v>
+        <v>13618.766357</v>
       </c>
       <c r="I17">
-        <v>0.9046248489651427</v>
+        <v>0.9785370483372949</v>
       </c>
       <c r="J17">
-        <v>0.9046248489651427</v>
+        <v>0.978537048337295</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.03793733333333333</v>
+        <v>0.1571906666666667</v>
       </c>
       <c r="N17">
-        <v>0.113812</v>
+        <v>0.471572</v>
       </c>
       <c r="O17">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="P17">
-        <v>0.002731209722503793</v>
+        <v>0.01135100451402528</v>
       </c>
       <c r="Q17">
-        <v>80.05496685873067</v>
+        <v>713.5809876114672</v>
       </c>
       <c r="R17">
-        <v>720.4947017285759</v>
+        <v>6422.228888503204</v>
       </c>
       <c r="S17">
-        <v>0.002470720182712123</v>
+        <v>0.01110737845281761</v>
       </c>
       <c r="T17">
-        <v>0.002470720182712123</v>
+        <v>0.01110737845281761</v>
       </c>
     </row>
   </sheetData>
